--- a/biology/Zoologie/Deelemanella/Deelemanella.xlsx
+++ b/biology/Zoologie/Deelemanella/Deelemanella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deelemanella est un genre d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deelemanella est un genre d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Malaisie et en Papouasie-Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Malaisie et en Papouasie-Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 12/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 12/02/2024) :
 Deelemanella borneo Yoshida, 2003
 Deelemanella christae Vanuytven, 2023</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit en 2003 dans les Theridiidae par Hajime Yoshida (d).
 </t>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est nommé en l'honneur de Christa Laetitia Deeleman-Reinhold[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est nommé en l'honneur de Christa Laetitia Deeleman-Reinhold.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Hajime Yoshida, « A new genus and three new species of the family Theridiidae (Arachnida: Araneae) from North Borneo », Acta Arachnologica, Japon, vol. 52, no 2,‎ 31 décembre 2003, p. 85-89 (ISSN 0001-5202, e-ISSN 1880-7852, lire en ligne, consulté le 12 février 2024).</t>
         </is>
